--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:K112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2220,56 +2220,73 @@
     <row r="108">
       <c r="D108" t="inlineStr">
         <is>
+          <t>modInvoke</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>complete_quest(08_lily_private)</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="D109" t="inlineStr">
+        <is>
           <t>invoke*</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="F109" t="inlineStr">
+    <row r="110">
+      <c r="F110" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>sys_buff</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="I110" t="inlineStr">
         <is>
           <t>【システム】サキュバスの観察眼（24時間）を獲得しました。</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="J110" t="inlineStr">
         <is>
           <t>【システム】サキュバスの観察眼（24時間）を獲得しました。</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バフ付与処理 - 魔法詠唱成功率+10%, 回避+5, 獲得VP+10%");</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="D111" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バフ付与処理 - 魔法詠唱成功率+10%, 回避+5, 獲得VP+10%");</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="D112" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
@@ -2252,11 +2252,6 @@
       </c>
     </row>
     <row r="110">
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
       <c r="H110" t="inlineStr">
         <is>
           <t>sys_buff</t>
@@ -2264,12 +2259,12 @@
       </c>
       <c r="I110" t="inlineStr">
         <is>
-          <t>【システム】サキュバスの観察眼（24時間）を獲得しました。</t>
+          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
         </is>
       </c>
       <c r="J110" t="inlineStr">
         <is>
-          <t>【システム】サキュバスの観察眼（24時間）を獲得しました。</t>
+          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
         </is>
       </c>
     </row>
@@ -2281,7 +2276,7 @@
       </c>
       <c r="E111" t="inlineStr">
         <is>
-          <t>UnityEngine.Debug.Log("[SukutsuArena] TODO: バフ付与処理 - 魔法詠唱成功率+10%, 回避+5, 獲得VP+10%");</t>
+          <t>Elin_SukutsuArena.ArenaManager.GrantLilyPrivateBonus();</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -578,38 +578,68 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>0.3</t>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>lily_1</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>……おかえりなさい。</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>……おかえりなさい。</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>focusChara</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>lily_2</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>観客席からの『供物』で、少しばかり身だしなみが乱れているようですね。ふふ、でも……今のあなたからは、とても複雑で、芳醇な香りがします。</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>観客席からの『供物』で、少しばかり身だしなみが乱れているようですね。ふふ、でも……今のあなたからは、とても複雑で、芳醇な香りがします。</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>wait</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>0.5</t>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>narr_4</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>（彼女は羽根ペンを置き、あなたに近づく。）</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>（彼女は羽根ペンを置き、あなたに近づく。）</t>
         </is>
       </c>
     </row>
@@ -621,17 +651,17 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>lily_1</t>
+          <t>lily_3</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>……おかえりなさい。</t>
+          <t>絶望と、不屈。そして、ほんの少しの『殺意』が混じり合った、熟成した魂の匂い。</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>……おかえりなさい。</t>
+          <t>絶望と、不屈。そして、ほんの少しの『殺意』が混じり合った、熟成した魂の匂い。</t>
         </is>
       </c>
     </row>
@@ -643,193 +673,163 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>lily_2</t>
+          <t>lily_4</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>観客席からの『供物』で、少しばかり身だしなみが乱れているようですね。ふふ、でも……今のあなたからは、とても複雑で、芳醇な香りがします。</t>
+          <t>……バルガスの酒臭い怒声が響くこの場所では、その香りを十分に楽しめません。少し、私の『私室』へいらっしゃいませんか？</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>観客席からの『供物』で、少しばかり身だしなみが乱れているようですね。ふふ、でも……今のあなたからは、とても複雑で、芳醇な香りがします。</t>
+          <t>……バルガスの酒臭い怒声が響くこの場所では、その香りを十分に楽しめません。少し、私の『私室』へいらっしゃいませんか？</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>narr_4</t>
+          <t>lily_5</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>（彼女は羽根ペンを置き、あなたに近づく。）</t>
+          <t>仕事の話ではありません。ただ、観察者として……あなたのその魂を、もう少し近くで愛でたいのです。</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>（彼女は羽根ペンを置き、あなたに近づく。）</t>
+          <t>仕事の話ではありません。ただ、観察者として……あなたのその魂を、もう少し近くで愛でたいのです。</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>react1_accept</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>lily_3</t>
+          <t>c1_accept</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>絶望と、不屈。そして、ほんの少しの『殺意』が混じり合った、熟成した魂の匂い。</t>
+          <t>……分かった。行こう</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>絶望と、不屈。そして、ほんの少しの『殺意』が混じり合った、熟成した魂の匂い。</t>
+          <t>……分かった。行こう</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>react1_scheme</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>lily_4</t>
+          <t>c1_scheme</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>……バルガスの酒臭い怒声が響くこの場所では、その香りを十分に楽しめません。少し、私の『私室』へいらっしゃいませんか？</t>
+          <t>何か企んでいるのか？</t>
         </is>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>……バルガスの酒臭い怒声が響くこの場所では、その香りを十分に楽しめません。少し、私の『私室』へいらっしゃいませんか？</t>
+          <t>何か企んでいるのか？</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>react1_nod</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>lily_5</t>
+          <t>c1_nod</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>仕事の話ではありません。ただ、観察者として……あなたのその魂を、もう少し近くで愛でたいのです。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>仕事の話ではありません。ただ、観察者として……あなたのその魂を、もう少し近くで愛でたいのです。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="B22" t="inlineStr">
+      <c r="A22" t="inlineStr">
         <is>
           <t>react1_accept</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>c1_accept</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>……分かった。行こう</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>……分かった。行こう</t>
-        </is>
-      </c>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>react1_scheme</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>c1_scheme</t>
+          <t>lily_r1</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>何か企んでいるのか？</t>
+          <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
         </is>
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>何か企んでいるのか？</t>
+          <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>react1_nod</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>c1_nod</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>scene2_private_room</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>react1_accept</t>
+          <t>react1_scheme</t>
         </is>
       </c>
     </row>
@@ -841,17 +841,17 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>lily_r1</t>
+          <t>lily_r2</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
+          <t>まあ、警戒心がおありで。ご心配なく、ただの社交ですよ。……多分。</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
+          <t>まあ、警戒心がおありで。ご心配なく、ただの社交ですよ。……多分。</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>react1_scheme</t>
+          <t>react1_nod</t>
         </is>
       </c>
     </row>
@@ -877,17 +877,17 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>lily_r2</t>
+          <t>lily_r3</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>まあ、警戒心がおありで。ご心配なく、ただの社交ですよ。……多分。</t>
+          <t>……無口ですが、了承はしていただけたようですね。どうぞ、ついてきてください。</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>まあ、警戒心がおありで。ご心配なく、ただの社交ですよ。……多分。</t>
+          <t>……無口ですが、了承はしていただけたようですね。どうぞ、ついてきてください。</t>
         </is>
       </c>
     </row>
@@ -901,55 +901,85 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>react1_nod</t>
+          <t>scene2_private_room</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>lily_r3</t>
-        </is>
-      </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>……無口ですが、了承はしていただけたようですね。どうぞ、ついてきてください。</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>……無口ですが、了承はしていただけたようですね。どうぞ、ついてきてください。</t>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Private_Room");             var data = SoundManager.current.GetData("BGM/Lily_Private_Room");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Private_Room");             }</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>scene2_private_room</t>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>narr_5</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>（ロビーの裏手にある重厚な黒檀の扉。そこを潜った瞬間、大気の重さが変わる。）</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>（ロビーの裏手にある重厚な黒檀の扉。そこを潜った瞬間、大気の重さが変わる。）</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>scene2_private_room</t>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>narr_6</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>（部屋全体を支配するのは、甘美でありながら肺の奥を痺れさせるような「紫煙」の香。）</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>（部屋全体を支配するのは、甘美でありながら肺の奥を痺れさせるような「紫煙」の香。）</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Private_Room");             var data = SoundManager.current.GetData("BGM/Lily_Private_Room");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Private_Room");             }</t>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>narr_7</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>（床には柔らかな魔獣の毛皮が敷き詰められ、壁には異次元の珍奇な書物や、何かの魂が閉じ込められたと思わしき脈打つ宝石が飾られている。）</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>（床には柔らかな魔獣の毛皮が敷き詰められ、壁には異次元の珍奇な書物や、何かの魂が閉じ込められたと思わしき脈打つ宝石が飾られている。）</t>
         </is>
       </c>
     </row>
@@ -961,83 +991,83 @@
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>narr_5</t>
+          <t>narr_8</t>
         </is>
       </c>
       <c r="I36" t="inlineStr">
         <is>
-          <t>（ロビーの裏手にある重厚な黒檀の扉。そこを潜った瞬間、大気の重さが変わる。）</t>
+          <t>（リリィは、毒々しいほど鮮やかなソファに深く腰掛け、事務服の襟元をわずかに緩めた。）</t>
         </is>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>（ロビーの裏手にある重厚な黒檀の扉。そこを潜った瞬間、大気の重さが変わる。）</t>
+          <t>（リリィは、毒々しいほど鮮やかなソファに深く腰掛け、事務服の襟元をわずかに緩めた。）</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="F37" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>narr_6</t>
+          <t>lily_6</t>
         </is>
       </c>
       <c r="I37" t="inlineStr">
         <is>
-          <t>（部屋全体を支配するのは、甘美でありながら肺の奥を痺れさせるような「紫煙」の香。）</t>
+          <t>さあ、遠慮なさらず。</t>
         </is>
       </c>
       <c r="J37" t="inlineStr">
         <is>
-          <t>（部屋全体を支配するのは、甘美でありながら肺の奥を痺れさせるような「紫煙」の香。）</t>
+          <t>さあ、遠慮なさらず。</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="F38" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>narr_7</t>
+          <t>lily_7</t>
         </is>
       </c>
       <c r="I38" t="inlineStr">
         <is>
-          <t>（床には柔らかな魔獣の毛皮が敷き詰められ、壁には異次元の珍奇な書物や、何かの魂が閉じ込められたと思わしき脈打つ宝石が飾られている。）</t>
+          <t>ここはアリーナの法則からも、神々の視線からも隔絶された場所。</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>（床には柔らかな魔獣の毛皮が敷き詰められ、壁には異次元の珍奇な書物や、何かの魂が閉じ込められたと思わしき脈打つ宝石が飾られている。）</t>
+          <t>ここはアリーナの法則からも、神々の視線からも隔絶された場所。</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="F39" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>narr_8</t>
+          <t>lily_8</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
         <is>
-          <t>（リリィは、毒々しいほど鮮やかなソファに深く腰掛け、事務服の襟元をわずかに緩めた。）</t>
+          <t>……今のあなたの戦い、実に滑稽で、そして美しかったわ。落下物に翻弄されながらも、その瞳から光が消えなかった。</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>（リリィは、毒々しいほど鮮やかなソファに深く腰掛け、事務服の襟元をわずかに緩めた。）</t>
+          <t>……今のあなたの戦い、実に滑稽で、そして美しかったわ。落下物に翻弄されながらも、その瞳から光が消えなかった。</t>
         </is>
       </c>
     </row>
@@ -1049,171 +1079,141 @@
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>lily_6</t>
+          <t>lily_9</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>さあ、遠慮なさらず。</t>
+          <t>……あの瞬間、あなたの魂がどれほど甘く弾けたか、自覚はありますか？</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>さあ、遠慮なさらず。</t>
+          <t>……あの瞬間、あなたの魂がどれほど甘く弾けたか、自覚はありますか？</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>react2_no</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>lily_7</t>
+          <t>c2_no</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
         <is>
-          <t>ここはアリーナの法則からも、神々の視線からも隔絶された場所。</t>
+          <t>……自覚はない</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>ここはアリーナの法則からも、神々の視線からも隔絶された場所。</t>
+          <t>……自覚はない</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>react2_tasty</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>lily_8</t>
+          <t>c2_tasty</t>
         </is>
       </c>
       <c r="I42" t="inlineStr">
         <is>
-          <t>……今のあなたの戦い、実に滑稽で、そして美しかったわ。落下物に翻弄されながらも、その瞳から光が消えなかった。</t>
+          <t>俺の魂がそんなに美味しそうか？</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>……今のあなたの戦い、実に滑稽で、そして美しかったわ。落下物に翻弄されながらも、その瞳から光が消えなかった。</t>
+          <t>俺の魂がそんなに美味しそうか？</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>react2_silent</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>lily_9</t>
+          <t>c2_silent</t>
         </is>
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>……あの瞬間、あなたの魂がどれほど甘く弾けたか、自覚はありますか？</t>
+          <t>（無言で聞く）</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>……あの瞬間、あなたの魂がどれほど甘く弾けたか、自覚はありますか？</t>
+          <t>（無言で聞く）</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="inlineStr">
+      <c r="A44" t="inlineStr">
         <is>
           <t>react2_no</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>c2_no</t>
-        </is>
-      </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>……自覚はない</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>……自覚はない</t>
-        </is>
-      </c>
     </row>
     <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>react2_tasty</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>c2_tasty</t>
+          <t>lily_r4</t>
         </is>
       </c>
       <c r="I45" t="inlineStr">
         <is>
-          <t>俺の魂がそんなに美味しそうか？</t>
+          <t>ふふ、そうでしょうね。当事者は気づかないものです。</t>
         </is>
       </c>
       <c r="J45" t="inlineStr">
         <is>
-          <t>俺の魂がそんなに美味しそうか？</t>
+          <t>ふふ、そうでしょうね。当事者は気づかないものです。</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>react2_silent</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>c2_silent</t>
-        </is>
-      </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>（無言で聞く）</t>
+          <t>scene3_observation</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>react2_no</t>
+          <t>react2_tasty</t>
         </is>
       </c>
     </row>
@@ -1225,17 +1225,17 @@
       </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>lily_r4</t>
+          <t>lily_r5</t>
         </is>
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>ふふ、そうでしょうね。当事者は気づかないものです。</t>
+          <t>ええ。……とても。食べてしまいたいくらいに。</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>ふふ、そうでしょうね。当事者は気づかないものです。</t>
+          <t>ええ。……とても。食べてしまいたいくらいに。</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>react2_tasty</t>
+          <t>react2_silent</t>
         </is>
       </c>
     </row>
@@ -1261,17 +1261,17 @@
       </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>lily_r5</t>
+          <t>lily_r6</t>
         </is>
       </c>
       <c r="I51" t="inlineStr">
         <is>
-          <t>ええ。……とても。食べてしまいたいくらいに。</t>
+          <t>……無口ですが、その瞳は饒舌ですね。</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>ええ。……とても。食べてしまいたいくらいに。</t>
+          <t>……無口ですが、その瞳は饒舌ですね。</t>
         </is>
       </c>
     </row>
@@ -1285,77 +1285,107 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>react2_silent</t>
+          <t>scene3_observation</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>lily_r6</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>……無口ですが、その瞳は饒舌ですね。</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>……無口ですが、その瞳は饒舌ですね。</t>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>scene3_observation</t>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>narr_9</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>（リリィは指先を唇に当て、クスクスと喉を鳴らす。）</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>（リリィは指先を唇に当て、クスクスと喉を鳴らす。）</t>
         </is>
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>scene3_observation</t>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>narr_10</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr">
+        <is>
+          <t>（彼女の尻尾が、まるで生き物のようにあなたの足首に絡みついた。）</t>
+        </is>
+      </c>
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>（彼女の尻尾が、まるで生き物のようにあなたの足首に絡みついた。）</t>
         </is>
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>lily_10</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>……あなたは不思議な人。</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>……あなたは不思議な人。</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="F58" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>narr_9</t>
+          <t>lily_11</t>
         </is>
       </c>
       <c r="I58" t="inlineStr">
         <is>
-          <t>（リリィは指先を唇に当て、クスクスと喉を鳴らす。）</t>
+          <t>多くの闘士は、ランクDに上がる頃には心が擦り切れて、ただの戦う機械になる。けれど、あなたからは『意志』の拍動が聞こえるの。</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>（リリィは指先を唇に当て、クスクスと喉を鳴らす。）</t>
+          <t>多くの闘士は、ランクDに上がる頃には心が擦り切れて、ただの戦う機械になる。けれど、あなたからは『意志』の拍動が聞こえるの。</t>
         </is>
       </c>
     </row>
@@ -1367,17 +1397,17 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>narr_10</t>
+          <t>narr_11</t>
         </is>
       </c>
       <c r="I59" t="inlineStr">
         <is>
-          <t>（彼女の尻尾が、まるで生き物のようにあなたの足首に絡みついた。）</t>
+          <t>（サキュバスの本能が、抑えきれずに漏れ出す。）</t>
         </is>
       </c>
       <c r="J59" t="inlineStr">
         <is>
-          <t>（彼女の尻尾が、まるで生き物のようにあなたの足首に絡みついた。）</t>
+          <t>（サキュバスの本能が、抑えきれずに漏れ出す。）</t>
         </is>
       </c>
     </row>
@@ -1389,17 +1419,17 @@
       </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>lily_10</t>
+          <t>lily_12</t>
         </is>
       </c>
       <c r="I60" t="inlineStr">
         <is>
-          <t>……あなたは不思議な人。</t>
+          <t>……ねえ、一つ教えて。あなたは、どこまで登るつもり？その魂が完全に磨き上げられ、最高級の宝石になった時……</t>
         </is>
       </c>
       <c r="J60" t="inlineStr">
         <is>
-          <t>……あなたは不思議な人。</t>
+          <t>……ねえ、一つ教えて。あなたは、どこまで登るつもり？その魂が完全に磨き上げられ、最高級の宝石になった時……</t>
         </is>
       </c>
     </row>
@@ -1411,17 +1441,17 @@
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>lily_11</t>
+          <t>lily_13</t>
         </is>
       </c>
       <c r="I61" t="inlineStr">
         <is>
-          <t>多くの闘士は、ランクDに上がる頃には心が擦り切れて、ただの戦う機械になる。けれど、あなたからは『意志』の拍動が聞こえるの。</t>
+          <t>それを最初に手にするのは、私であってもいいかしら？</t>
         </is>
       </c>
       <c r="J61" t="inlineStr">
         <is>
-          <t>多くの闘士は、ランクDに上がる頃には心が擦り切れて、ただの戦う機械になる。けれど、あなたからは『意志』の拍動が聞こえるの。</t>
+          <t>それを最初に手にするのは、私であってもいいかしら？</t>
         </is>
       </c>
     </row>
@@ -1433,39 +1463,24 @@
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>narr_11</t>
+          <t>narr_12</t>
         </is>
       </c>
       <c r="I62" t="inlineStr">
         <is>
-          <t>（サキュバスの本能が、抑えきれずに漏れ出す。）</t>
+          <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。——それは、捕食者の本能。）</t>
         </is>
       </c>
       <c r="J62" t="inlineStr">
         <is>
-          <t>（サキュバスの本能が、抑えきれずに漏れ出す。）</t>
+          <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。——それは、捕食者の本能。）</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>lily_12</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>……ねえ、一つ教えて。あなたは、どこまで登るつもり？その魂が完全に磨き上げられ、最高級の宝石になった時……</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>……ねえ、一つ教えて。あなたは、どこまで登るつもり？その魂が完全に磨き上げられ、最高級の宝石になった時……</t>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1477,17 +1492,17 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>lily_13</t>
+          <t>lily_14</t>
         </is>
       </c>
       <c r="I64" t="inlineStr">
         <is>
-          <t>それを最初に手にするのは、私であってもいいかしら？</t>
+          <t>……ふふ、冗談よ。怖がらないで。</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>それを最初に手にするのは、私であってもいいかしら？</t>
+          <t>……ふふ、冗談よ。怖がらないで。</t>
         </is>
       </c>
     </row>
@@ -1499,24 +1514,39 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>narr_12</t>
+          <t>narr_13</t>
         </is>
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。——それは、捕食者の本能。）</t>
+          <t>（彼女は一歩下がるが、その手は微かに震えている。）</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。——それは、捕食者の本能。）</t>
+          <t>（彼女は一歩下がるが、その手は微かに震えている。）</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>shake</t>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>lily_mono1</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>（……だめ。この人は、『商品』じゃない。『観察対象』じゃない。）</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>（……だめ。この人は、『商品』じゃない。『観察対象』じゃない。）</t>
         </is>
       </c>
     </row>
@@ -1528,17 +1558,17 @@
       </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>lily_14</t>
+          <t>lily_mono2</t>
         </is>
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>……ふふ、冗談よ。怖がらないで。</t>
+          <t>（でも……この香り。この、熟した魂の甘い香り。……ああ、食べたい。喰らいたい。あなたの全てを、この牙で噛み砕いて、永遠に私の中に……）</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>……ふふ、冗談よ。怖がらないで。</t>
+          <t>（でも……この香り。この、熟した魂の甘い香り。……ああ、食べたい。喰らいたい。あなたの全てを、この牙で噛み砕いて、永遠に私の中に……）</t>
         </is>
       </c>
     </row>
@@ -1550,17 +1580,17 @@
       </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>narr_13</t>
+          <t>narr_14</t>
         </is>
       </c>
       <c r="I68" t="inlineStr">
         <is>
-          <t>（彼女は一歩下がるが、その手は微かに震えている。）</t>
+          <t>（リリィは自分の唇を噛み、その衝動を必死に抑え込む。彼女の尻尾が、苦しげに床を叩いた。）</t>
         </is>
       </c>
       <c r="J68" t="inlineStr">
         <is>
-          <t>（彼女は一歩下がるが、その手は微かに震えている。）</t>
+          <t>（リリィは自分の唇を噛み、その衝動を必死に抑え込む。彼女の尻尾が、苦しげに床を叩いた。）</t>
         </is>
       </c>
     </row>
@@ -1572,17 +1602,17 @@
       </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>lily_mono1</t>
+          <t>lily_15</t>
         </is>
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>（……だめ。この人は、『商品』じゃない。『観察対象』じゃない。）</t>
+          <t>……ごめんなさい。少し、気分が……。</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>（……だめ。この人は、『商品』じゃない。『観察対象』じゃない。）</t>
+          <t>……ごめんなさい。少し、気分が……。</t>
         </is>
       </c>
     </row>
@@ -1594,171 +1624,141 @@
       </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>lily_mono2</t>
+          <t>lily_16</t>
         </is>
       </c>
       <c r="I70" t="inlineStr">
         <is>
-          <t>（でも……この香り。この、熟した魂の甘い香り。……ああ、食べたい。喰らいたい。あなたの全てを、この牙で噛み砕いて、永遠に私の中に……）</t>
+          <t>サキュバスにとって、『美味しそうな魂』を前にして我慢するのは……拷問に近いの。でも、あなたを傷つけたくない。……これは、初めての感覚。</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>（でも……この香り。この、熟した魂の甘い香り。……ああ、食べたい。喰らいたい。あなたの全てを、この牙で噛み砕いて、永遠に私の中に……）</t>
+          <t>サキュバスにとって、『美味しそうな魂』を前にして我慢するのは……拷問に近いの。でも、あなたを傷つけたくない。……これは、初めての感覚。</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>react3_ok</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>narr_14</t>
+          <t>c3_ok</t>
         </is>
       </c>
       <c r="I71" t="inlineStr">
         <is>
-          <t>（リリィは自分の唇を噛み、その衝動を必死に抑え込む。彼女の尻尾が、苦しげに床を叩いた。）</t>
+          <t>大丈夫か？</t>
         </is>
       </c>
       <c r="J71" t="inlineStr">
         <is>
-          <t>（リリィは自分の唇を噛み、その衝動を必死に抑え込む。彼女の尻尾が、苦しげに床を叩いた。）</t>
+          <t>大丈夫か？</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>react3_rest</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>lily_15</t>
+          <t>c3_rest</t>
         </is>
       </c>
       <c r="I72" t="inlineStr">
         <is>
-          <t>……ごめんなさい。少し、気分が……。</t>
+          <t>無理をするな</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>……ごめんなさい。少し、気分が……。</t>
+          <t>無理をするな</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>react3_watch</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H73" t="inlineStr">
         <is>
-          <t>lily_16</t>
+          <t>c3_watch</t>
         </is>
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>サキュバスにとって、『美味しそうな魂』を前にして我慢するのは……拷問に近いの。でも、あなたを傷つけたくない。……これは、初めての感覚。</t>
+          <t>（静かに見守る）</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>サキュバスにとって、『美味しそうな魂』を前にして我慢するのは……拷問に近いの。でも、あなたを傷つけたくない。……これは、初めての感覚。</t>
+          <t>（静かに見守る）</t>
         </is>
       </c>
     </row>
     <row r="74">
-      <c r="B74" t="inlineStr">
+      <c r="A74" t="inlineStr">
         <is>
           <t>react3_ok</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>c3_ok</t>
-        </is>
-      </c>
-      <c r="I74" t="inlineStr">
-        <is>
-          <t>大丈夫か？</t>
-        </is>
-      </c>
-      <c r="J74" t="inlineStr">
-        <is>
-          <t>大丈夫か？</t>
-        </is>
-      </c>
     </row>
     <row r="75">
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>react3_rest</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>c3_rest</t>
+          <t>lily_r7</t>
         </is>
       </c>
       <c r="I75" t="inlineStr">
         <is>
-          <t>無理をするな</t>
+          <t>……ええ、大丈夫です。少し、驚いただけ。</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>無理をするな</t>
+          <t>……ええ、大丈夫です。少し、驚いただけ。</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>react3_watch</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>c3_watch</t>
-        </is>
-      </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>（静かに見守る）</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
-        <is>
-          <t>（静かに見守る）</t>
+          <t>scene4_farewell</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>react3_ok</t>
+          <t>react3_rest</t>
         </is>
       </c>
     </row>
@@ -1770,17 +1770,17 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>lily_r7</t>
+          <t>lily_r8</t>
         </is>
       </c>
       <c r="I78" t="inlineStr">
         <is>
-          <t>……ええ、大丈夫です。少し、驚いただけ。</t>
+          <t>……ありがとう。でも、私は大丈夫。……多分。</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>……ええ、大丈夫です。少し、驚いただけ。</t>
+          <t>……ありがとう。でも、私は大丈夫。……多分。</t>
         </is>
       </c>
     </row>
@@ -1794,7 +1794,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>react3_rest</t>
+          <t>react3_watch</t>
         </is>
       </c>
     </row>
@@ -1806,17 +1806,17 @@
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>lily_r8</t>
+          <t>lily_r9</t>
         </is>
       </c>
       <c r="I81" t="inlineStr">
         <is>
-          <t>……ありがとう。でも、私は大丈夫。……多分。</t>
+          <t>……あなた、本当に優しいのですね。</t>
         </is>
       </c>
       <c r="J81" t="inlineStr">
         <is>
-          <t>……ありがとう。でも、私は大丈夫。……多分。</t>
+          <t>……あなた、本当に優しいのですね。</t>
         </is>
       </c>
     </row>
@@ -1830,77 +1830,107 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>react3_watch</t>
+          <t>scene4_farewell</t>
         </is>
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
-        <is>
-          <t>lily_r9</t>
-        </is>
-      </c>
-      <c r="I84" t="inlineStr">
-        <is>
-          <t>……あなた、本当に優しいのですね。</t>
-        </is>
-      </c>
-      <c r="J84" t="inlineStr">
-        <is>
-          <t>……あなた、本当に優しいのですね。</t>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
         </is>
       </c>
     </row>
     <row r="85">
-      <c r="B85" t="inlineStr">
-        <is>
-          <t>scene4_farewell</t>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>narr_15</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr">
+        <is>
+          <t>（彼女は立ち上がり、至近距離まで顔を近づける。）</t>
+        </is>
+      </c>
+      <c r="J85" t="inlineStr">
+        <is>
+          <t>（彼女は立ち上がり、至近距離まで顔を近づける。）</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>scene4_farewell</t>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>pc</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>narr_16</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>（サキュバス特有の、抗いがたい魔力の波動があなたを包み込んだ。）</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>（サキュバス特有の、抗いがたい魔力の波動があなたを包み込んだ。）</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>lily_17</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>……ふふ、今の質問の答えは、もっと先で聞かせてもらうことにしましょう。</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>……ふふ、今の質問の答えは、もっと先で聞かせてもらうことにしましょう。</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="F88" t="inlineStr">
         <is>
-          <t>pc</t>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>narr_15</t>
+          <t>lily_18</t>
         </is>
       </c>
       <c r="I88" t="inlineStr">
         <is>
-          <t>（彼女は立ち上がり、至近距離まで顔を近づける。）</t>
+          <t>これは、私のお気に入りの『観察対象』への投資です。次からも、もっと美味しい絶望と勝利を私に見せてくださいね。</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>（彼女は立ち上がり、至近距離まで顔を近づける。）</t>
+          <t>これは、私のお気に入りの『観察対象』への投資です。次からも、もっと美味しい絶望と勝利を私に見せてくださいね。</t>
         </is>
       </c>
     </row>
@@ -1912,39 +1942,24 @@
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>narr_16</t>
+          <t>narr_17</t>
         </is>
       </c>
       <c r="I89" t="inlineStr">
         <is>
-          <t>（サキュバス特有の、抗いがたい魔力の波動があなたを包み込んだ。）</t>
+          <t>（リリィがあなたの額に指先を触れる。瞬間、全身の疲労が霧散し、魔力が底から溢れ出すような感覚に陥る。）</t>
         </is>
       </c>
       <c r="J89" t="inlineStr">
         <is>
-          <t>（サキュバス特有の、抗いがたい魔力の波動があなたを包み込んだ。）</t>
+          <t>（リリィがあなたの額に指先を触れる。瞬間、全身の疲労が霧散し、魔力が底から溢れ出すような感覚に陥る。）</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>lily_17</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>……ふふ、今の質問の答えは、もっと先で聞かせてもらうことにしましょう。</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>……ふふ、今の質問の答えは、もっと先で聞かせてもらうことにしましょう。</t>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>shake</t>
         </is>
       </c>
     </row>
@@ -1956,156 +1971,141 @@
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>lily_18</t>
+          <t>lily_19</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
         <is>
-          <t>これは、私のお気に入りの『観察対象』への投資です。次からも、もっと美味しい絶望と勝利を私に見せてくださいね。</t>
+          <t>……これは、私からのささやかな贈り物。少しの間、あなたの力を高めてあげますよ。</t>
         </is>
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>これは、私のお気に入りの『観察対象』への投資です。次からも、もっと美味しい絶望と勝利を私に見せてくださいね。</t>
+          <t>……これは、私からのささやかな贈り物。少しの間、あなたの力を高めてあげますよ。</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>react4_thanks</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>narr_17</t>
+          <t>c4_thanks</t>
         </is>
       </c>
       <c r="I92" t="inlineStr">
         <is>
-          <t>（リリィがあなたの額に指先を触れる。瞬間、全身の疲労が霧散し、魔力が底から溢れ出すような感覚に陥る。）</t>
+          <t>……ありがとう</t>
         </is>
       </c>
       <c r="J92" t="inlineStr">
         <is>
-          <t>（リリィがあなたの額に指先を触れる。瞬間、全身の疲労が霧散し、魔力が底から溢れ出すような感覚に陥る。）</t>
+          <t>……ありがとう</t>
         </is>
       </c>
     </row>
     <row r="93">
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>react4_again</t>
+        </is>
+      </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>shake</t>
+          <t>choice</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>c4_again</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr">
+        <is>
+          <t>次も来てもいいか？</t>
+        </is>
+      </c>
+      <c r="J93" t="inlineStr">
+        <is>
+          <t>次も来てもいいか？</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>react4_nod</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>choice</t>
         </is>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>lily_19</t>
+          <t>c4_nod</t>
         </is>
       </c>
       <c r="I94" t="inlineStr">
         <is>
-          <t>……これは、私からのささやかな贈り物。少しの間、あなたの力を高めてあげますよ。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
       <c r="J94" t="inlineStr">
         <is>
-          <t>……これは、私からのささやかな贈り物。少しの間、あなたの力を高めてあげますよ。</t>
+          <t>（無言で頷く）</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="B95" t="inlineStr">
+      <c r="A95" t="inlineStr">
         <is>
           <t>react4_thanks</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>c4_thanks</t>
-        </is>
-      </c>
-      <c r="I95" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
-      <c r="J95" t="inlineStr">
-        <is>
-          <t>……ありがとう</t>
-        </is>
-      </c>
     </row>
     <row r="96">
-      <c r="B96" t="inlineStr">
-        <is>
-          <t>react4_again</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>choice</t>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
         </is>
       </c>
       <c r="H96" t="inlineStr">
         <is>
-          <t>c4_again</t>
+          <t>lily_r10</t>
         </is>
       </c>
       <c r="I96" t="inlineStr">
         <is>
-          <t>次も来てもいいか？</t>
+          <t>ふふ、どういたしまして。……またいらしてくださいね。</t>
         </is>
       </c>
       <c r="J96" t="inlineStr">
         <is>
-          <t>次も来てもいいか？</t>
+          <t>ふふ、どういたしまして。……またいらしてくださいね。</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>react4_nod</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>choice</t>
-        </is>
-      </c>
-      <c r="H97" t="inlineStr">
-        <is>
-          <t>c4_nod</t>
-        </is>
-      </c>
-      <c r="I97" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
-        </is>
-      </c>
-      <c r="J97" t="inlineStr">
-        <is>
-          <t>（無言で頷く）</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>react4_thanks</t>
+          <t>react4_again</t>
         </is>
       </c>
     </row>
@@ -2117,17 +2117,17 @@
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>lily_r10</t>
+          <t>lily_r11</t>
         </is>
       </c>
       <c r="I99" t="inlineStr">
         <is>
-          <t>ふふ、どういたしまして。……またいらしてくださいね。</t>
+          <t>……ええ。もちろん。あなたなら、いつでも歓迎いたします。</t>
         </is>
       </c>
       <c r="J99" t="inlineStr">
         <is>
-          <t>ふふ、どういたしまして。……またいらしてくださいね。</t>
+          <t>……ええ。もちろん。あなたなら、いつでも歓迎いたします。</t>
         </is>
       </c>
     </row>
@@ -2141,7 +2141,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>react4_again</t>
+          <t>react4_nod</t>
         </is>
       </c>
     </row>
@@ -2153,17 +2153,17 @@
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>lily_r11</t>
+          <t>lily_r12</t>
         </is>
       </c>
       <c r="I102" t="inlineStr">
         <is>
-          <t>……ええ。もちろん。あなたなら、いつでも歓迎いたします。</t>
+          <t>……無口ですが、気持ちは伝わりましたよ。</t>
         </is>
       </c>
       <c r="J102" t="inlineStr">
         <is>
-          <t>……ええ。もちろん。あなたなら、いつでも歓迎いたします。</t>
+          <t>……無口ですが、気持ちは伝わりましたよ。</t>
         </is>
       </c>
     </row>
@@ -2177,111 +2177,75 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>react4_nod</t>
+          <t>ending</t>
         </is>
       </c>
     </row>
     <row r="105">
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>complete_quest(08_lily_private)</t>
+        </is>
+      </c>
       <c r="F105" t="inlineStr">
         <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
-        <is>
-          <t>lily_r12</t>
-        </is>
-      </c>
-      <c r="I105" t="inlineStr">
-        <is>
-          <t>……無口ですが、気持ちは伝わりましたよ。</t>
-        </is>
-      </c>
-      <c r="J105" t="inlineStr">
-        <is>
-          <t>……無口ですが、気持ちは伝わりましたよ。</t>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="106">
-      <c r="B106" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>invoke*</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>pc</t>
         </is>
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>ending</t>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr">
+        <is>
+          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J107" t="inlineStr">
+        <is>
+          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="D108" t="inlineStr">
         <is>
-          <t>modInvoke</t>
+          <t>eval</t>
         </is>
       </c>
       <c r="E108" t="inlineStr">
         <is>
-          <t>complete_quest(08_lily_private)</t>
-        </is>
-      </c>
-      <c r="F108" t="inlineStr">
-        <is>
-          <t>pc</t>
+          <t>Elin_SukutsuArena.ArenaManager.GrantLilyPrivateBonus();</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="D109" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="D111" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantLilyPrivateBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="D112" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K112"/>
+  <dimension ref="A1:K111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2235,53 +2235,36 @@
       </c>
     </row>
     <row r="109">
-      <c r="D109" t="inlineStr">
-        <is>
-          <t>invoke*</t>
-        </is>
-      </c>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>mod_flag(chitsii.arena.rel.lily, +10)</t>
-        </is>
-      </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>pc</t>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>sys_buff</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>sys_buff</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>eval</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Elin_SukutsuArena.ArenaManager.GrantLilyPrivateBonus();</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="D111" t="inlineStr">
-        <is>
-          <t>eval</t>
-        </is>
-      </c>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Elin_SukutsuArena.ArenaManager.GrantLilyPrivateBonus();</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="D112" t="inlineStr">
         <is>
           <t>end</t>
         </is>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
@@ -1504,12 +1504,12 @@
       </c>
       <c r="I65" t="inlineStr">
         <is>
-          <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。——それは、捕食者の本能。）</t>
+          <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。ーーそれは、捕食者の本能。）</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。——それは、捕食者の本能。）</t>
+          <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。ーーそれは、捕食者の本能。）</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
@@ -1533,12 +1533,12 @@
       </c>
       <c r="I67" t="inlineStr">
         <is>
-          <t>……ふふ、冗談よ。怖がらないで。</t>
+          <t>……ふふ、冗談よ。</t>
         </is>
       </c>
       <c r="J67" t="inlineStr">
         <is>
-          <t>……ふふ、冗談よ。怖がらないで。</t>
+          <t>……ふふ、冗談よ。</t>
         </is>
       </c>
     </row>
@@ -1577,12 +1577,12 @@
       </c>
       <c r="I69" t="inlineStr">
         <is>
-          <t>（……だめ。この人は、『商品』じゃない。『観察対象』じゃない。）</t>
+          <t>（……だめよ。この人に手をだしてはいけない。）</t>
         </is>
       </c>
       <c r="J69" t="inlineStr">
         <is>
-          <t>（……だめ。この人は、『商品』じゃない。『観察対象』じゃない。）</t>
+          <t>（……だめよ。この人に手をだしてはいけない。）</t>
         </is>
       </c>
     </row>
@@ -1939,12 +1939,12 @@
       </c>
       <c r="I90" t="inlineStr">
         <is>
-          <t>……ふふ、今の質問の答えは、もっと先で聞かせてもらうことにしましょう。</t>
+          <t>……ふふ、先程の質問の答えは、またどこかで聞かせてもらうことにしましょう。</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>……ふふ、今の質問の答えは、もっと先で聞かせてもらうことにしましょう。</t>
+          <t>……ふふ、先程の質問の答えは、またどこかで聞かせてもらうことにしましょう。</t>
         </is>
       </c>
     </row>

--- a/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
+++ b/Elin_SukutsuArena/LangMod/JP/Dialog/Drama/drama_lily_private.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K111"/>
+  <dimension ref="A1:L111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,40 +439,45 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>if2</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>action</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>param</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>actor</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>id</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>text_JP</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>text_EN</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>text</t>
         </is>
@@ -486,78 +491,78 @@
       </c>
     </row>
     <row r="7">
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lobby_Normal");             var data = SoundManager.current.GetData("BGM/Lobby_Normal");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lobby_Normal");             }</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>narr_1</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>（戦いの傷を癒し、戦果を報告しに受付へ向かったあなた。）</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>（戦いの傷を癒し、戦果を報告しに受付へ向かったあなた。）</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>narr_2</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>（リリィはいつものように書類を整理しているが、その動きはどこか緩慢だ。）</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>（リリィはいつものように書類を整理しているが、その動きはどこか緩慢だ。）</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>narr_3</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>（彼女の細長い瞳が、あなたの全身を這うように舐め回す。）</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>（彼女の細長い瞳が、あなたの全身を這うように舐め回す。）</t>
         </is>
@@ -578,168 +583,168 @@
       </c>
     </row>
     <row r="13">
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>0.3</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>focusChara</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>sukutsu_receptionist</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>wait</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>0.5</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
         <is>
           <t>lily_1</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>……おかえりなさい。</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>……おかえりなさい。</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
         <is>
           <t>lily_2</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>観客席からの『供物』で、少しばかり身だしなみが乱れているようですね。ふふ、でも……今のあなたからは、とても複雑で、芳醇な香りがします。</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>観客席からの『供物』で、少しばかり身だしなみが乱れているようですね。ふふ、でも……今のあなたからは、とても複雑で、芳醇な香りがします。</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="F18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>narr_4</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>（彼女は羽根ペンを置き、あなたに近づく。）</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>（彼女は羽根ペンを置き、あなたに近づく。）</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
         <is>
           <t>lily_3</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>絶望と、不屈。そして、ほんの少しの『殺意』が混じり合った、熟成した魂の匂い。</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>絶望と、不屈。そして、ほんの少しの『殺意』が混じり合った、熟成した魂の匂い。</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
         <is>
           <t>lily_4</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>……バルガスの酒臭い怒声が響くこの場所では、その香りを十分に楽しめません。少し、私の『私室』へいらっしゃいませんか？</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>……バルガスの酒臭い怒声が響くこの場所では、その香りを十分に楽しめません。少し、私の『私室』へいらっしゃいませんか？</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
         <is>
           <t>lily_5</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>仕事の話ではありません。ただ、観察者として……あなたのその魂を、もう少し近くで愛でたいのです。</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>仕事の話ではありません。ただ、観察者として……あなたのその魂を、もう少し近くで愛でたいのです。</t>
         </is>
@@ -751,22 +756,22 @@
           <t>react1_accept</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>c1_accept</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>……分かった。行こう</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>……分かった。行こう</t>
         </is>
@@ -778,22 +783,22 @@
           <t>react1_scheme</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>c1_scheme</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>何か企んでいるのか？</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>何か企んでいるのか？</t>
         </is>
@@ -805,22 +810,22 @@
           <t>react1_nod</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>c1_nod</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -834,22 +839,22 @@
       </c>
     </row>
     <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
         <is>
           <t>lily_r1</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>ふふ、素直ですこと。では、こちらへどうぞ。</t>
         </is>
@@ -870,22 +875,22 @@
       </c>
     </row>
     <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
         <is>
           <t>lily_r2</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>まあ、警戒心がおありで。ご心配なく、ただの社交ですよ。……多分。</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>まあ、警戒心がおありで。ご心配なく、ただの社交ですよ。……多分。</t>
         </is>
@@ -906,22 +911,22 @@
       </c>
     </row>
     <row r="32">
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
         <is>
           <t>lily_r3</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>……無口ですが、了承はしていただけたようですね。どうぞ、ついてきてください。</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>……無口ですが、了承はしていただけたようですね。どうぞ、ついてきてください。</t>
         </is>
@@ -942,188 +947,188 @@
       </c>
     </row>
     <row r="35">
-      <c r="D35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Private_Room");             var data = SoundManager.current.GetData("BGM/Lily_Private_Room");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Private_Room");             }</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="F36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>narr_5</t>
         </is>
       </c>
-      <c r="I36" t="inlineStr">
+      <c r="J36" t="inlineStr">
         <is>
           <t>（ロビーの裏手にある重厚な黒檀の扉。そこを潜った瞬間、大気の重さが変わる。）</t>
         </is>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>（ロビーの裏手にある重厚な黒檀の扉。そこを潜った瞬間、大気の重さが変わる。）</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="F37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>narr_6</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>（部屋全体を支配するのは、甘美でありながら肺の奥を痺れさせるような「紫煙」の香。）</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>（部屋全体を支配するのは、甘美でありながら肺の奥を痺れさせるような「紫煙」の香。）</t>
         </is>
       </c>
     </row>
     <row r="38">
-      <c r="F38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>narr_7</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>（床には柔らかな魔獣の毛皮が敷き詰められ、壁には異次元の珍奇な書物や、何かの魂が閉じ込められたと思わしき脈打つ宝石が飾られている。）</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>（床には柔らかな魔獣の毛皮が敷き詰められ、壁には異次元の珍奇な書物や、何かの魂が閉じ込められたと思わしき脈打つ宝石が飾られている。）</t>
         </is>
       </c>
     </row>
     <row r="39">
-      <c r="F39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>narr_8</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>（リリィは、毒々しいほど鮮やかなソファに深く腰掛け、事務服の襟元をわずかに緩めた。）</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>（リリィは、毒々しいほど鮮やかなソファに深く腰掛け、事務服の襟元をわずかに緩めた。）</t>
         </is>
       </c>
     </row>
     <row r="40">
-      <c r="F40" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
         <is>
           <t>lily_6</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>さあ、遠慮なさらず。</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>さあ、遠慮なさらず。</t>
         </is>
       </c>
     </row>
     <row r="41">
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
         <is>
           <t>lily_7</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>ここはアリーナの法則からも、神々の視線からも隔絶された場所。</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>ここはアリーナの法則からも、神々の視線からも隔絶された場所。</t>
         </is>
       </c>
     </row>
     <row r="42">
-      <c r="F42" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
         <is>
           <t>lily_8</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>……今のあなたの戦い、実に滑稽で、そして美しかったわ。落下物に翻弄されながらも、その瞳から光が消えなかった。</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>……今のあなたの戦い、実に滑稽で、そして美しかったわ。落下物に翻弄されながらも、その瞳から光が消えなかった。</t>
         </is>
       </c>
     </row>
     <row r="43">
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
         <is>
           <t>lily_9</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>……あの瞬間、あなたの魂がどれほど甘く弾けたか、自覚はありますか？</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>……あの瞬間、あなたの魂がどれほど甘く弾けたか、自覚はありますか？</t>
         </is>
@@ -1135,22 +1140,22 @@
           <t>react2_no</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>c2_no</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>……自覚はない</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>……自覚はない</t>
         </is>
@@ -1162,22 +1167,22 @@
           <t>react2_tasty</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>c2_tasty</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>俺の魂がそんなに美味しそうか？</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>俺の魂がそんなに美味しそうか？</t>
         </is>
@@ -1189,22 +1194,22 @@
           <t>react2_silent</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>c2_silent</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>（無言で聞く）</t>
         </is>
@@ -1218,22 +1223,22 @@
       </c>
     </row>
     <row r="48">
-      <c r="F48" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
         <is>
           <t>lily_r4</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>ふふ、そうでしょうね。当事者は気づかないものです。</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>ふふ、そうでしょうね。当事者は気づかないものです。</t>
         </is>
@@ -1254,22 +1259,22 @@
       </c>
     </row>
     <row r="51">
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
         <is>
           <t>lily_r5</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>ええ。……とても。食べてしまいたいくらいに。</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>ええ。……とても。食べてしまいたいくらいに。</t>
         </is>
@@ -1290,22 +1295,22 @@
       </c>
     </row>
     <row r="54">
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
         <is>
           <t>lily_r6</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
+      <c r="J54" t="inlineStr">
         <is>
           <t>……無口ですが、その瞳は饒舌ですね。</t>
         </is>
       </c>
-      <c r="J54" t="inlineStr">
+      <c r="K54" t="inlineStr">
         <is>
           <t>……無口ですが、その瞳は饒舌ですね。</t>
         </is>
@@ -1326,349 +1331,349 @@
       </c>
     </row>
     <row r="57">
-      <c r="D57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Seductive_Danger");             var data = SoundManager.current.GetData("BGM/Lily_Seductive_Danger");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Seductive_Danger");             }</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="F58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>narr_9</t>
         </is>
       </c>
-      <c r="I58" t="inlineStr">
+      <c r="J58" t="inlineStr">
         <is>
           <t>（リリィは指先を唇に当て、クスクスと喉を鳴らす。）</t>
         </is>
       </c>
-      <c r="J58" t="inlineStr">
+      <c r="K58" t="inlineStr">
         <is>
           <t>（リリィは指先を唇に当て、クスクスと喉を鳴らす。）</t>
         </is>
       </c>
     </row>
     <row r="59">
-      <c r="F59" t="inlineStr">
+      <c r="G59" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="I59" t="inlineStr">
         <is>
           <t>narr_10</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
+      <c r="J59" t="inlineStr">
         <is>
           <t>（彼女の尻尾が、まるで生き物のようにあなたの足首に絡みついた。）</t>
         </is>
       </c>
-      <c r="J59" t="inlineStr">
+      <c r="K59" t="inlineStr">
         <is>
           <t>（彼女の尻尾が、まるで生き物のようにあなたの足首に絡みついた。）</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
         <is>
           <t>lily_10</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
+      <c r="J60" t="inlineStr">
         <is>
           <t>……あなたは不思議な人。</t>
         </is>
       </c>
-      <c r="J60" t="inlineStr">
+      <c r="K60" t="inlineStr">
         <is>
           <t>……あなたは不思議な人。</t>
         </is>
       </c>
     </row>
     <row r="61">
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr">
         <is>
           <t>lily_11</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
+      <c r="J61" t="inlineStr">
         <is>
           <t>多くの闘士は、ランクDに上がる頃には心が擦り切れて、ただの戦う機械になる。けれど、あなたからは『意志』の拍動が聞こえるの。</t>
         </is>
       </c>
-      <c r="J61" t="inlineStr">
+      <c r="K61" t="inlineStr">
         <is>
           <t>多くの闘士は、ランクDに上がる頃には心が擦り切れて、ただの戦う機械になる。けれど、あなたからは『意志』の拍動が聞こえるの。</t>
         </is>
       </c>
     </row>
     <row r="62">
-      <c r="F62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>narr_11</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
+      <c r="J62" t="inlineStr">
         <is>
           <t>（サキュバスの本能が、抑えきれずに漏れ出す。）</t>
         </is>
       </c>
-      <c r="J62" t="inlineStr">
+      <c r="K62" t="inlineStr">
         <is>
           <t>（サキュバスの本能が、抑えきれずに漏れ出す。）</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
         <is>
           <t>lily_12</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
+      <c r="J63" t="inlineStr">
         <is>
           <t>……ねえ、一つ教えて。あなたは、どこまで登るつもり？その魂が完全に磨き上げられ、最高級の宝石になった時……</t>
         </is>
       </c>
-      <c r="J63" t="inlineStr">
+      <c r="K63" t="inlineStr">
         <is>
           <t>……ねえ、一つ教えて。あなたは、どこまで登るつもり？その魂が完全に磨き上げられ、最高級の宝石になった時……</t>
         </is>
       </c>
     </row>
     <row r="64">
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
         <is>
           <t>lily_13</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
+      <c r="J64" t="inlineStr">
         <is>
           <t>それを最初に手にするのは、私であってもいいかしら？</t>
         </is>
       </c>
-      <c r="J64" t="inlineStr">
+      <c r="K64" t="inlineStr">
         <is>
           <t>それを最初に手にするのは、私であってもいいかしら？</t>
         </is>
       </c>
     </row>
     <row r="65">
-      <c r="F65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>narr_12</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
+      <c r="J65" t="inlineStr">
         <is>
           <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。ーーそれは、捕食者の本能。）</t>
         </is>
       </c>
-      <c r="J65" t="inlineStr">
+      <c r="K65" t="inlineStr">
         <is>
           <t>（あなたは彼女の吐息に、甘美でありながら危険な「何か」を感じ取る。ーーそれは、捕食者の本能。）</t>
         </is>
       </c>
     </row>
     <row r="66">
-      <c r="D66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="67">
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H67" t="inlineStr">
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
         <is>
           <t>lily_14</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
+      <c r="J67" t="inlineStr">
         <is>
           <t>……ふふ、冗談よ。</t>
         </is>
       </c>
-      <c r="J67" t="inlineStr">
+      <c r="K67" t="inlineStr">
         <is>
           <t>……ふふ、冗談よ。</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="F68" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="I68" t="inlineStr">
         <is>
           <t>narr_13</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
+      <c r="J68" t="inlineStr">
         <is>
           <t>（彼女は一歩下がるが、その手は微かに震えている。）</t>
         </is>
       </c>
-      <c r="J68" t="inlineStr">
+      <c r="K68" t="inlineStr">
         <is>
           <t>（彼女は一歩下がるが、その手は微かに震えている。）</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
         <is>
           <t>lily_mono1</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
+      <c r="J69" t="inlineStr">
         <is>
           <t>（……だめよ。この人に手をだしてはいけない。）</t>
         </is>
       </c>
-      <c r="J69" t="inlineStr">
+      <c r="K69" t="inlineStr">
         <is>
           <t>（……だめよ。この人に手をだしてはいけない。）</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
         <is>
           <t>lily_mono2</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
+      <c r="J70" t="inlineStr">
         <is>
           <t>（でも……この香り。この、熟した魂の甘い香り。……ああ、食べたい。喰らいたい。あなたの全てを、この牙で噛み砕いて、永遠に私の中に……）</t>
         </is>
       </c>
-      <c r="J70" t="inlineStr">
+      <c r="K70" t="inlineStr">
         <is>
           <t>（でも……この香り。この、熟した魂の甘い香り。……ああ、食べたい。喰らいたい。あなたの全てを、この牙で噛み砕いて、永遠に私の中に……）</t>
         </is>
       </c>
     </row>
     <row r="71">
-      <c r="F71" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="I71" t="inlineStr">
         <is>
           <t>narr_14</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
+      <c r="J71" t="inlineStr">
         <is>
           <t>（リリィは自分の唇を噛み、その衝動を必死に抑え込む。彼女の尻尾が、苦しげに床を叩いた。）</t>
         </is>
       </c>
-      <c r="J71" t="inlineStr">
+      <c r="K71" t="inlineStr">
         <is>
           <t>（リリィは自分の唇を噛み、その衝動を必死に抑え込む。彼女の尻尾が、苦しげに床を叩いた。）</t>
         </is>
       </c>
     </row>
     <row r="72">
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H72" t="inlineStr">
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
         <is>
           <t>lily_15</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
+      <c r="J72" t="inlineStr">
         <is>
           <t>……ごめんなさい。少し、気分が……。</t>
         </is>
       </c>
-      <c r="J72" t="inlineStr">
+      <c r="K72" t="inlineStr">
         <is>
           <t>……ごめんなさい。少し、気分が……。</t>
         </is>
       </c>
     </row>
     <row r="73">
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H73" t="inlineStr">
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr">
         <is>
           <t>lily_16</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
+      <c r="J73" t="inlineStr">
         <is>
           <t>サキュバスにとって、『美味しそうな魂』を前にして我慢するのは……拷問に近いの。でも、あなたを傷つけたくない。……これは、初めての感覚。</t>
         </is>
       </c>
-      <c r="J73" t="inlineStr">
+      <c r="K73" t="inlineStr">
         <is>
           <t>サキュバスにとって、『美味しそうな魂』を前にして我慢するのは……拷問に近いの。でも、あなたを傷つけたくない。……これは、初めての感覚。</t>
         </is>
@@ -1680,22 +1685,22 @@
           <t>react3_ok</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>c3_ok</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="J74" t="inlineStr">
         <is>
           <t>大丈夫か？</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="K74" t="inlineStr">
         <is>
           <t>大丈夫か？</t>
         </is>
@@ -1707,22 +1712,22 @@
           <t>react3_rest</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>c3_rest</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>無理をするな</t>
         </is>
       </c>
-      <c r="J75" t="inlineStr">
+      <c r="K75" t="inlineStr">
         <is>
           <t>無理をするな</t>
         </is>
@@ -1734,22 +1739,22 @@
           <t>react3_watch</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="I76" t="inlineStr">
         <is>
           <t>c3_watch</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
+      <c r="J76" t="inlineStr">
         <is>
           <t>（静かに見守る）</t>
         </is>
       </c>
-      <c r="J76" t="inlineStr">
+      <c r="K76" t="inlineStr">
         <is>
           <t>（静かに見守る）</t>
         </is>
@@ -1763,22 +1768,22 @@
       </c>
     </row>
     <row r="78">
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
         <is>
           <t>lily_r7</t>
         </is>
       </c>
-      <c r="I78" t="inlineStr">
+      <c r="J78" t="inlineStr">
         <is>
           <t>……ええ、大丈夫です。少し、驚いただけ。</t>
         </is>
       </c>
-      <c r="J78" t="inlineStr">
+      <c r="K78" t="inlineStr">
         <is>
           <t>……ええ、大丈夫です。少し、驚いただけ。</t>
         </is>
@@ -1799,22 +1804,22 @@
       </c>
     </row>
     <row r="81">
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H81" t="inlineStr">
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
         <is>
           <t>lily_r8</t>
         </is>
       </c>
-      <c r="I81" t="inlineStr">
+      <c r="J81" t="inlineStr">
         <is>
           <t>……ありがとう。でも、私は大丈夫。……多分。</t>
         </is>
       </c>
-      <c r="J81" t="inlineStr">
+      <c r="K81" t="inlineStr">
         <is>
           <t>……ありがとう。でも、私は大丈夫。……多分。</t>
         </is>
@@ -1835,22 +1840,22 @@
       </c>
     </row>
     <row r="84">
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H84" t="inlineStr">
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr">
         <is>
           <t>lily_r9</t>
         </is>
       </c>
-      <c r="I84" t="inlineStr">
+      <c r="J84" t="inlineStr">
         <is>
           <t>……あなた、本当に優しいのですね。</t>
         </is>
       </c>
-      <c r="J84" t="inlineStr">
+      <c r="K84" t="inlineStr">
         <is>
           <t>……あなた、本当に優しいのですね。</t>
         </is>
@@ -1871,151 +1876,151 @@
       </c>
     </row>
     <row r="87">
-      <c r="D87" t="inlineStr">
+      <c r="E87" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E87" t="inlineStr">
+      <c r="F87" t="inlineStr">
         <is>
           <t>Debug.Log("[SukutsuArena] Attempting to play BGM: BGM/Lily_Tranquil");             var data = SoundManager.current.GetData("BGM/Lily_Tranquil");             if (data != null) {                 Debug.Log("[SukutsuArena] Found BGM data, type: " + data.GetType().Name);                 if (data is BGMData bgm) {                     Debug.Log("[SukutsuArena] Playing as BGM");                     LayerDrama.haltPlaylist = true;                     LayerDrama.maxBGMVolume = true;                     SoundManager.current.PlayBGM(bgm);                 } else {                     Debug.Log("[SukutsuArena] Playing as Sound");                     SoundManager.current.Play(data);                 }             } else {                 Debug.LogWarning("[SukutsuArena] BGM not found: BGM/Lily_Tranquil");             }</t>
         </is>
       </c>
     </row>
     <row r="88">
-      <c r="F88" t="inlineStr">
+      <c r="G88" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H88" t="inlineStr">
+      <c r="I88" t="inlineStr">
         <is>
           <t>narr_15</t>
         </is>
       </c>
-      <c r="I88" t="inlineStr">
+      <c r="J88" t="inlineStr">
         <is>
           <t>（彼女は立ち上がり、至近距離まで顔を近づける。）</t>
         </is>
       </c>
-      <c r="J88" t="inlineStr">
+      <c r="K88" t="inlineStr">
         <is>
           <t>（彼女は立ち上がり、至近距離まで顔を近づける。）</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="F89" t="inlineStr">
+      <c r="G89" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H89" t="inlineStr">
+      <c r="I89" t="inlineStr">
         <is>
           <t>narr_16</t>
         </is>
       </c>
-      <c r="I89" t="inlineStr">
+      <c r="J89" t="inlineStr">
         <is>
           <t>（サキュバス特有の、抗いがたい魔力の波動があなたを包み込んだ。）</t>
         </is>
       </c>
-      <c r="J89" t="inlineStr">
+      <c r="K89" t="inlineStr">
         <is>
           <t>（サキュバス特有の、抗いがたい魔力の波動があなたを包み込んだ。）</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
         <is>
           <t>lily_17</t>
         </is>
       </c>
-      <c r="I90" t="inlineStr">
+      <c r="J90" t="inlineStr">
         <is>
           <t>……ふふ、先程の質問の答えは、またどこかで聞かせてもらうことにしましょう。</t>
         </is>
       </c>
-      <c r="J90" t="inlineStr">
+      <c r="K90" t="inlineStr">
         <is>
           <t>……ふふ、先程の質問の答えは、またどこかで聞かせてもらうことにしましょう。</t>
         </is>
       </c>
     </row>
     <row r="91">
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H91" t="inlineStr">
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr">
         <is>
           <t>lily_18</t>
         </is>
       </c>
-      <c r="I91" t="inlineStr">
+      <c r="J91" t="inlineStr">
         <is>
           <t>これは、私のお気に入りの『観察対象』への投資です。次からも、もっと美味しい絶望と勝利を私に見せてくださいね。</t>
         </is>
       </c>
-      <c r="J91" t="inlineStr">
+      <c r="K91" t="inlineStr">
         <is>
           <t>これは、私のお気に入りの『観察対象』への投資です。次からも、もっと美味しい絶望と勝利を私に見せてくださいね。</t>
         </is>
       </c>
     </row>
     <row r="92">
-      <c r="F92" t="inlineStr">
+      <c r="G92" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
-      <c r="H92" t="inlineStr">
+      <c r="I92" t="inlineStr">
         <is>
           <t>narr_17</t>
         </is>
       </c>
-      <c r="I92" t="inlineStr">
+      <c r="J92" t="inlineStr">
         <is>
           <t>（リリィがあなたの額に指先を触れる。瞬間、全身の疲労が霧散し、魔力が底から溢れ出すような感覚に陥る。）</t>
         </is>
       </c>
-      <c r="J92" t="inlineStr">
+      <c r="K92" t="inlineStr">
         <is>
           <t>（リリィがあなたの額に指先を触れる。瞬間、全身の疲労が霧散し、魔力が底から溢れ出すような感覚に陥る。）</t>
         </is>
       </c>
     </row>
     <row r="93">
-      <c r="D93" t="inlineStr">
+      <c r="E93" t="inlineStr">
         <is>
           <t>shake</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H94" t="inlineStr">
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr">
         <is>
           <t>lily_19</t>
         </is>
       </c>
-      <c r="I94" t="inlineStr">
+      <c r="J94" t="inlineStr">
         <is>
           <t>……これは、私からのささやかな贈り物。少しの間、あなたの力を高めてあげますよ。</t>
         </is>
       </c>
-      <c r="J94" t="inlineStr">
+      <c r="K94" t="inlineStr">
         <is>
           <t>……これは、私からのささやかな贈り物。少しの間、あなたの力を高めてあげますよ。</t>
         </is>
@@ -2027,22 +2032,22 @@
           <t>react4_thanks</t>
         </is>
       </c>
-      <c r="D95" t="inlineStr">
+      <c r="E95" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H95" t="inlineStr">
+      <c r="I95" t="inlineStr">
         <is>
           <t>c4_thanks</t>
         </is>
       </c>
-      <c r="I95" t="inlineStr">
+      <c r="J95" t="inlineStr">
         <is>
           <t>……ありがとう</t>
         </is>
       </c>
-      <c r="J95" t="inlineStr">
+      <c r="K95" t="inlineStr">
         <is>
           <t>……ありがとう</t>
         </is>
@@ -2054,22 +2059,22 @@
           <t>react4_again</t>
         </is>
       </c>
-      <c r="D96" t="inlineStr">
+      <c r="E96" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H96" t="inlineStr">
+      <c r="I96" t="inlineStr">
         <is>
           <t>c4_again</t>
         </is>
       </c>
-      <c r="I96" t="inlineStr">
+      <c r="J96" t="inlineStr">
         <is>
           <t>次も来てもいいか？</t>
         </is>
       </c>
-      <c r="J96" t="inlineStr">
+      <c r="K96" t="inlineStr">
         <is>
           <t>次も来てもいいか？</t>
         </is>
@@ -2081,22 +2086,22 @@
           <t>react4_nod</t>
         </is>
       </c>
-      <c r="D97" t="inlineStr">
+      <c r="E97" t="inlineStr">
         <is>
           <t>choice</t>
         </is>
       </c>
-      <c r="H97" t="inlineStr">
+      <c r="I97" t="inlineStr">
         <is>
           <t>c4_nod</t>
         </is>
       </c>
-      <c r="I97" t="inlineStr">
+      <c r="J97" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
       </c>
-      <c r="J97" t="inlineStr">
+      <c r="K97" t="inlineStr">
         <is>
           <t>（無言で頷く）</t>
         </is>
@@ -2110,22 +2115,22 @@
       </c>
     </row>
     <row r="99">
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H99" t="inlineStr">
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr">
         <is>
           <t>lily_r10</t>
         </is>
       </c>
-      <c r="I99" t="inlineStr">
+      <c r="J99" t="inlineStr">
         <is>
           <t>ふふ、どういたしまして。……またいらしてくださいね。</t>
         </is>
       </c>
-      <c r="J99" t="inlineStr">
+      <c r="K99" t="inlineStr">
         <is>
           <t>ふふ、どういたしまして。……またいらしてくださいね。</t>
         </is>
@@ -2146,22 +2151,22 @@
       </c>
     </row>
     <row r="102">
-      <c r="F102" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H102" t="inlineStr">
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr">
         <is>
           <t>lily_r11</t>
         </is>
       </c>
-      <c r="I102" t="inlineStr">
+      <c r="J102" t="inlineStr">
         <is>
           <t>……ええ。もちろん。あなたなら、いつでも歓迎いたします。</t>
         </is>
       </c>
-      <c r="J102" t="inlineStr">
+      <c r="K102" t="inlineStr">
         <is>
           <t>……ええ。もちろん。あなたなら、いつでも歓迎いたします。</t>
         </is>
@@ -2182,22 +2187,22 @@
       </c>
     </row>
     <row r="105">
-      <c r="F105" t="inlineStr">
-        <is>
-          <t>sukutsu_receptionist</t>
-        </is>
-      </c>
-      <c r="H105" t="inlineStr">
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>sukutsu_receptionist</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr">
         <is>
           <t>lily_r12</t>
         </is>
       </c>
-      <c r="I105" t="inlineStr">
+      <c r="J105" t="inlineStr">
         <is>
           <t>……無口ですが、気持ちは伝わりましたよ。</t>
         </is>
       </c>
-      <c r="J105" t="inlineStr">
+      <c r="K105" t="inlineStr">
         <is>
           <t>……無口ですが、気持ちは伝わりましたよ。</t>
         </is>
@@ -2218,53 +2223,53 @@
       </c>
     </row>
     <row r="108">
-      <c r="D108" t="inlineStr">
+      <c r="E108" t="inlineStr">
         <is>
           <t>modInvoke</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="F108" t="inlineStr">
         <is>
           <t>complete_quest(08_lily_private)</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="G108" t="inlineStr">
         <is>
           <t>pc</t>
         </is>
       </c>
     </row>
     <row r="109">
-      <c r="H109" t="inlineStr">
+      <c r="I109" t="inlineStr">
         <is>
           <t>sys_buff</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
+      <c r="J109" t="inlineStr">
         <is>
           <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
         </is>
       </c>
-      <c r="J109" t="inlineStr">
+      <c r="K109" t="inlineStr">
         <is>
           <t>【システム】『リリィの寵愛』を獲得しました。魔力+5、回避+5、魅了耐性+10 の加護を得た！</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="D110" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>eval</t>
         </is>
       </c>
-      <c r="E110" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>Elin_SukutsuArena.ArenaManager.GrantLilyPrivateBonus();</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="D111" t="inlineStr">
+      <c r="E111" t="inlineStr">
         <is>
           <t>end</t>
         </is>
